--- a/input/resources/source-data/DEQM_Capability_Statement_Producer_Server.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Producer_Server.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\source\resources\source-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\input\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB473362-A825-4EBC-B377-AA12847C4FF2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2078382-11E3-42DC-93CD-7811ADB11B9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-19320" yWindow="-465" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
-    <sheet name="meta" sheetId="1" r:id="rId1"/>
-    <sheet name="igs" sheetId="8" r:id="rId2"/>
-    <sheet name="profiles" sheetId="2" r:id="rId3"/>
-    <sheet name="resources" sheetId="3" r:id="rId4"/>
-    <sheet name="rest_interactions" sheetId="9" r:id="rId5"/>
-    <sheet name="ops" sheetId="7" r:id="rId6"/>
-    <sheet name="interactions" sheetId="5" r:id="rId7"/>
-    <sheet name="sps" sheetId="4" r:id="rId8"/>
-    <sheet name="sp_combos" sheetId="10" r:id="rId9"/>
+    <sheet name="config" sheetId="11" r:id="rId1"/>
+    <sheet name="meta" sheetId="1" r:id="rId2"/>
+    <sheet name="igs" sheetId="8" r:id="rId3"/>
+    <sheet name="profiles" sheetId="2" r:id="rId4"/>
+    <sheet name="resources" sheetId="3" r:id="rId5"/>
+    <sheet name="rest_interactions" sheetId="9" r:id="rId6"/>
+    <sheet name="ops" sheetId="7" r:id="rId7"/>
+    <sheet name="interactions" sheetId="5" r:id="rId8"/>
+    <sheet name="sps" sheetId="4" r:id="rId9"/>
+    <sheet name="sp_combos" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="153">
   <si>
     <t>Value</t>
   </si>
@@ -222,9 +223,6 @@
     <t>forbidden_s_combos</t>
   </si>
   <si>
-    <t>For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html).</t>
-  </si>
-  <si>
     <t>DeviceRequest</t>
   </si>
   <si>
@@ -294,207 +292,252 @@
     <t>collect-data</t>
   </si>
   <si>
+    <t>conf_Subscription</t>
+  </si>
+  <si>
+    <t>producer-server</t>
+  </si>
+  <si>
+    <t>This profile defines the expected capabilities of a Da Vinci DEQM Producer Server when conforming to the Da Vinci DEQM Implementation Guide. Producers include systems that are primary producers of patient healthcare information.  This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that a Da Vinci DEQM Producer Server could support. Servers have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
+  </si>
+  <si>
+    <t>Da Vinci DEQM Producer Server **SHALL** be capable of supporting the [FHIR Subscription API](http://hl7.org/fhir/STU3/subscription.html) providing notifications when measure data is available.</t>
+  </si>
+  <si>
+    <t>!Subscription</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>fhirVersion</t>
+  </si>
+  <si>
+    <t>CFQM</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>SHOULD</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/cqfmeasures/StructureDefinition/measure-cqfm</t>
+  </si>
+  <si>
+    <t>CQFM Measure</t>
+  </si>
+  <si>
+    <t>conf_Measure</t>
+  </si>
+  <si>
+    <t>conf_MeasureReport</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>search-system</t>
+  </si>
+  <si>
+    <t>history-system</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>combo</t>
+  </si>
+  <si>
+    <t>combo_conf</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>fixed_kv</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>imp_note</t>
+  </si>
+  <si>
+    <t>!Encounter</t>
+  </si>
+  <si>
+    <t>class,date</t>
+  </si>
+  <si>
+    <t>date,token</t>
+  </si>
+  <si>
+    <t>versioning_conf</t>
+  </si>
+  <si>
+    <t>readHistory_conf</t>
+  </si>
+  <si>
+    <t>updateCreate_conf</t>
+  </si>
+  <si>
+    <t>conditionalCreate</t>
+  </si>
+  <si>
+    <t>conditionalCreate_conf</t>
+  </si>
+  <si>
+    <t>conditionalRead</t>
+  </si>
+  <si>
+    <t>conditionalRead_conf</t>
+  </si>
+  <si>
+    <t>conditionalUpdate</t>
+  </si>
+  <si>
+    <t>conditionalUpdate_conf</t>
+  </si>
+  <si>
+    <t>conditionalDelete</t>
+  </si>
+  <si>
+    <t>conditionalDelete_conf</t>
+  </si>
+  <si>
+    <t>referencePolicy_conf</t>
+  </si>
+  <si>
+    <t>shall_include</t>
+  </si>
+  <si>
+    <t>should_include</t>
+  </si>
+  <si>
+    <t>shall_revinclude</t>
+  </si>
+  <si>
+    <t>should_revinclude</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/OperationDefinition/Measure-collect-data</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/devicerequest-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationadministration-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/summary-measurereport-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/datax-measurereport-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/practitioner-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/deviceusestatement-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/organization-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/coverage-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/indv-measurereport-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationrequest-deqm</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/subscription-deqm</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>packagepath</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>canon</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>publishersystem</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>publishervalue</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-DEQM/output/</t>
+  </si>
+  <si>
+    <t>HL7 International - Clinical Quality Information Work Group</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/cqi/index.cfm</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Da Vinci</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-DEQM/input/</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/hl7.fhir.us.qicore|4.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures|2.0.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Da Vinci DEQM Producer Server **SHALL**
-1. Support at least one transaction defined in the *Framework* Section of  this  Implementation Guide.
+1. Support the Collect Data  transaction defined in the *Framework* Section of  this  Implementation Guide.
 1. Declare a CapabilityStatement identifying the list of supported profiles and operations.
-1. Implement the RESTful behavior according to the FHIR specification including returning the appropriate response classes as described in the FHIR specification for [FHIR RESTful API](http://hl7.org/fhir/STU3/http.html).
+1. Implement the FHIR RESTful API  for operations including returning the appropriate response classes as described in the FHIR specification for [Extended Operations on the RESTful API ](http://hl7.org/fhir/R4/operations.html).
 1. Support both xml and json resource formats for all interactions.
 </t>
   </si>
   <si>
-    <t>conf_Subscription</t>
-  </si>
-  <si>
-    <t>producer-server</t>
-  </si>
-  <si>
-    <t>This profile defines the expected capabilities of a Da Vinci DEQM Producer Server when conforming to the Da Vinci DEQM Implementation Guide. Producers include systems that are primary producers of patient healthcare information.  This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that a Da Vinci DEQM Producer Server could support. Servers have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
-    <t>Da Vinci DEQM Producer Server **SHALL** be capable of supporting the [FHIR Subscription API](http://hl7.org/fhir/STU3/subscription.html) providing notifications when measure data is available.</t>
-  </si>
-  <si>
-    <t>!Subscription</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>fhirVersion</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/us-qicore-3.2.0</t>
-  </si>
-  <si>
-    <t>CFQM</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures</t>
-  </si>
-  <si>
-    <t>Measure</t>
-  </si>
-  <si>
-    <t>SHOULD</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/cqfmeasures/StructureDefinition/measure-cqfm</t>
-  </si>
-  <si>
-    <t>CQFM Measure</t>
-  </si>
-  <si>
-    <t>conf_Measure</t>
-  </si>
-  <si>
-    <t>conf_MeasureReport</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>transaction</t>
-  </si>
-  <si>
-    <t>MAY</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>search-system</t>
-  </si>
-  <si>
-    <t>history-system</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>profile</t>
-  </si>
-  <si>
-    <t>combo</t>
-  </si>
-  <si>
-    <t>combo_conf</t>
-  </si>
-  <si>
-    <t>types</t>
-  </si>
-  <si>
-    <t>fixed_kv</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>imp_note</t>
-  </si>
-  <si>
-    <t>!Encounter</t>
-  </si>
-  <si>
-    <t>class,date</t>
-  </si>
-  <si>
-    <t>date,token</t>
-  </si>
-  <si>
-    <t>versioning_conf</t>
-  </si>
-  <si>
-    <t>readHistory_conf</t>
-  </si>
-  <si>
-    <t>updateCreate_conf</t>
-  </si>
-  <si>
-    <t>conditionalCreate</t>
-  </si>
-  <si>
-    <t>conditionalCreate_conf</t>
-  </si>
-  <si>
-    <t>conditionalRead</t>
-  </si>
-  <si>
-    <t>conditionalRead_conf</t>
-  </si>
-  <si>
-    <t>conditionalUpdate</t>
-  </si>
-  <si>
-    <t>conditionalUpdate_conf</t>
-  </si>
-  <si>
-    <t>conditionalDelete</t>
-  </si>
-  <si>
-    <t>conditionalDelete_conf</t>
-  </si>
-  <si>
-    <t>referencePolicy_conf</t>
-  </si>
-  <si>
-    <t>shall_include</t>
-  </si>
-  <si>
-    <t>should_include</t>
-  </si>
-  <si>
-    <t>shall_revinclude</t>
-  </si>
-  <si>
-    <t>should_revinclude</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/OperationDefinition/Measure-collect-data</t>
-  </si>
-  <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
-    <t>4.0.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm-1.1.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/devicerequest-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationadministration-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/summary-measurereport-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/datax-measurereport-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/practitioner-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/deviceusestatement-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/organization-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/coverage-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/indv-measurereport-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationrequest-deqm</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/subscription-deqm</t>
+    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|1.1.0</t>
+  </si>
+  <si>
+    <t>For general security consideration refer to the [Security and Privacy Considerations](http://hl7.org/fhir/R4/secpriv-module.html).</t>
   </si>
 </sst>
 </file>
@@ -934,11 +977,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95557EE3-DBA1-4E50-80C4-3F9AF4FC89B8}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B8A24-F440-4B50-B25A-D9F033086E71}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="8" t="str">
+        <f t="shared" ref="J2" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,23 +1159,23 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -984,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -992,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1003,12 +1202,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1016,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1024,17 +1223,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0829A918-BBB6-6345-897C-371FBE4213DF}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="2" max="2" width="104.7109375" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1043,23 +1242,23 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1067,12 +1266,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,188 +1298,202 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="http://hl7.org/fhir/us/cqfmeasures/2019May/StructureDefinition-measure-cqfm.html" xr:uid="{F1A1554D-9167-42E9-9148-30B78A3CB582}"/>
-    <hyperlink ref="C13" r:id="rId2" display="http://hl7.org/fhir/us/cqfmeasures/2019May/StructureDefinition-measure-cqfm.html" xr:uid="{80CFAD7E-AE40-47F0-A875-118220C75301}"/>
+    <hyperlink ref="B14" r:id="rId1" display="http://hl7.org/fhir/us/cqfmeasures/2019May/StructureDefinition-measure-cqfm.html" xr:uid="{F1A1554D-9167-42E9-9148-30B78A3CB582}"/>
+    <hyperlink ref="C14" r:id="rId2" display="http://hl7.org/fhir/us/cqfmeasures/2019May/StructureDefinition-measure-cqfm.html" xr:uid="{80CFAD7E-AE40-47F0-A875-118220C75301}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,61 +1522,61 @@
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
         <v>38</v>
       </c>
       <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" t="s">
         <v>110</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>111</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>112</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>113</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>114</v>
-      </c>
-      <c r="N1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>118</v>
       </c>
       <c r="R1" t="s">
         <v>28</v>
       </c>
       <c r="S1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="X1" t="s">
         <v>48</v>
@@ -1371,18 +1584,18 @@
     </row>
     <row r="2" spans="1:24" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1395,7 +1608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346398F7-1BE1-4C16-A3AD-D6D18E28DD56}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1417,42 +1630,42 @@
         <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1461,7 +1674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BD6ECC-0BFD-4409-A93E-9F9ABC9C3BE7}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1469,7 +1682,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,13 +1711,13 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1519,12 +1732,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E2E280-092F-4777-8984-8212A8DAB750}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,13 +1753,13 @@
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1567,10 +1780,10 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,7 +1824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399C2ED-EDEB-47AB-8C1E-1290512B1D2F}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -1692,76 +1905,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B8A24-F440-4B50-B25A-D9F033086E71}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="8" t="str">
-        <f t="shared" ref="J2" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/input/resources/source-data/DEQM_Capability_Statement_Producer_Server.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Producer_Server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\input\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2078382-11E3-42DC-93CD-7811ADB11B9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E70B36-2738-420E-AF6D-BABFF010F2F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-465" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="25200" yWindow="885" windowWidth="25200" windowHeight="13425" activeTab="9" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="11" r:id="rId1"/>
@@ -487,9 +487,6 @@
     <t>canon</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/</t>
-  </si>
-  <si>
     <t>publisher</t>
   </si>
   <si>
@@ -538,6 +535,9 @@
   </si>
   <si>
     <t>For general security consideration refer to the [Security and Privacy Considerations](http://hl7.org/fhir/R4/secpriv-module.html).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/</t>
   </si>
 </sst>
 </file>
@@ -981,7 +981,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1003,7 @@
         <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
         <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1019,7 +1019,7 @@
         <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1027,31 +1027,31 @@
         <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
         <v>139</v>
-      </c>
-      <c r="B7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B8A24-F440-4B50-B25A-D9F033086E71}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1110,7 @@
         <v>101</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D2" t="s">
@@ -1123,7 +1123,7 @@
         <v>103</v>
       </c>
       <c r="J2" s="8" t="str">
-        <f t="shared" ref="J2" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
+        <f t="shared" ref="J2" si="0">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1175,7 +1175,7 @@
         <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1250,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/input/resources/source-data/DEQM_Capability_Statement_Producer_Server.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Producer_Server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\input\resources\source-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-DEQM/input/resources/source-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E70B36-2738-420E-AF6D-BABFF010F2F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7048E9A7-A00A-D04B-826E-6669E729A163}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="885" windowWidth="25200" windowHeight="13425" activeTab="9" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="11" r:id="rId1"/>
@@ -439,9 +439,6 @@
     <t>http://hl7.org/fhir/OperationDefinition/Measure-collect-data</t>
   </si>
   <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/devicerequest-deqm</t>
   </si>
   <si>
@@ -531,13 +528,16 @@
 </t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|1.1.0</t>
-  </si>
-  <si>
     <t>For general security consideration refer to the [Security and Privacy Considerations](http://hl7.org/fhir/R4/secpriv-module.html).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|2.0.0</t>
   </si>
 </sst>
 </file>
@@ -980,17 +980,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95557EE3-DBA1-4E50-80C4-3F9AF4FC89B8}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -998,60 +998,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>133</v>
       </c>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>134</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1064,13 +1064,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B8A24-F440-4B50-B25A-D9F033086E71}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1136,17 +1136,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1162,23 +1162,23 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1186,15 +1186,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1202,20 +1202,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1231,13 +1231,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="104.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="104.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1245,20 +1245,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1274,15 +1274,15 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="98.42578125" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="98.5" customWidth="1"/>
+    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1296,9 +1296,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -1310,9 +1310,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -1324,9 +1324,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -1338,9 +1338,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -1352,9 +1352,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -1366,9 +1366,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -1380,9 +1380,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -1394,9 +1394,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -1408,9 +1408,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
@@ -1422,9 +1422,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -1436,9 +1436,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -1450,9 +1450,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -1464,7 +1464,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1496,19 +1496,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="65" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1616,13 +1616,13 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -1685,14 +1685,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -1740,15 +1740,15 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1770,12 +1770,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1786,22 +1786,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1809,12 +1809,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1832,21 +1832,21 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
+    <col min="9" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.5" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
   </sheetData>

--- a/input/resources/source-data/DEQM_Capability_Statement_Producer_Server.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Producer_Server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-DEQM/input/resources/source-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\davinci-deqm\input\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7048E9A7-A00A-D04B-826E-6669E729A163}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3F345D-7BC4-47E9-A285-5114DF62A8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="3312" yWindow="1020" windowWidth="26052" windowHeight="15240" activeTab="4" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -262,9 +265,6 @@
     <t>DEQM DeviceUseStatement Profile</t>
   </si>
   <si>
-    <t>DEQM Organization Profile</t>
-  </si>
-  <si>
     <t>DEQM Coverage Profile</t>
   </si>
   <si>
@@ -457,9 +457,6 @@
     <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/deviceusestatement-deqm</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/organization-deqm</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/coverage-deqm</t>
   </si>
   <si>
@@ -512,12 +509,6 @@
   </si>
   <si>
     <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-DEQM/input/</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/hl7.fhir.us.qicore|4.0.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures|2.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">Da Vinci DEQM Producer Server **SHALL**
@@ -534,17 +525,29 @@
     <t>http://hl7.org/fhir/us/davinci-deqm/</t>
   </si>
   <si>
-    <t>2.0.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|2.0.0</t>
+    <t>3.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|3.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/hl7.fhir.us.qicore|4.1.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures|3.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/qicore/StructureDefinition/qicore-organization</t>
+  </si>
+  <si>
+    <t>QI Core Organization Profile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,12 +562,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF032F62"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -644,9 +641,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -658,10 +655,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -980,17 +976,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95557EE3-DBA1-4E50-80C4-3F9AF4FC89B8}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -998,60 +994,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>132</v>
       </c>
-      <c r="B2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>133</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1068,61 +1064,61 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
         <v>102</v>
       </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" s="8" t="str">
+      <c r="J2" s="7" t="str">
         <f t="shared" ref="J2" si="0">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
@@ -1140,13 +1136,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1154,47 +1150,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
       <c r="B4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1202,20 +1198,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1228,37 +1224,37 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="104.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1271,18 +1267,18 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="98.5" customWidth="1"/>
-    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="98.44140625" customWidth="1"/>
+    <col min="2" max="2" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1296,9 +1292,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -1310,9 +1306,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -1324,12 +1320,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1338,12 +1334,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1352,9 +1348,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -1366,9 +1362,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -1380,12 +1376,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>127</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1394,9 +1390,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -1408,12 +1404,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1422,12 +1418,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1436,12 +1432,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1450,12 +1446,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1464,18 +1460,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
         <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1492,23 +1488,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1522,80 +1518,80 @@
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s">
         <v>38</v>
       </c>
       <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" t="s">
         <v>106</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>107</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>108</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>109</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>110</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>111</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>112</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>113</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>114</v>
       </c>
       <c r="R1" t="s">
         <v>28</v>
       </c>
       <c r="S1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="X1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="65" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1616,13 +1612,13 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1630,42 +1626,42 @@
         <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>89</v>
       </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>90</v>
       </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>91</v>
-      </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1685,14 +1681,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1709,15 +1705,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1740,29 +1736,29 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1770,38 +1766,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1809,12 +1805,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1832,21 +1828,21 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" customWidth="1"/>
-    <col min="9" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.5" customWidth="1"/>
-    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="9.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" customWidth="1"/>
+    <col min="17" max="17" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1899,7 +1895,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
     </row>
   </sheetData>
